--- a/config_debug/signIn_cfg.xlsx
+++ b/config_debug/signIn_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,30 +192,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>v3三倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2三倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1双倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v5三倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2双倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3双倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>金币x15000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -259,6 +235,24 @@
   <si>
     <t>3dby_btn_zh</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1双倍</t>
+  </si>
+  <si>
+    <t>V2三倍</t>
+  </si>
+  <si>
+    <t>V3三倍</t>
+  </si>
+  <si>
+    <t>V5三倍</t>
+  </si>
+  <si>
+    <t>V2双倍</t>
+  </si>
+  <si>
+    <t>V3双倍</t>
   </si>
 </sst>
 </file>
@@ -688,7 +682,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -745,16 +739,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -767,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -788,16 +782,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
@@ -813,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
@@ -826,10 +820,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -845,16 +839,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -868,16 +862,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
@@ -900,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>42</v>
@@ -943,7 +937,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>42</v>
@@ -984,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>42</v>
